--- a/EstimatedActiveCasesOverTimeByCounty/2021-02-19.xlsx
+++ b/EstimatedActiveCasesOverTimeByCounty/2021-02-19.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="334">
   <si>
-    <t>COVID-19 Active Cases by County, 12/11/2020 - 02/18/2021 at 3:00 PM CST</t>
+    <t>COVID-19 Active Cases by County, 12/11/2020 - 02/19/2021 at 3:00 PM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -228,6 +228,9 @@
   </si>
   <si>
     <t>Active Cases 02-17</t>
+  </si>
+  <si>
+    <t>Active Cases 02-18</t>
   </si>
   <si>
     <t/>
@@ -1196,6 +1199,7 @@
     <col min="68" max="68" width="12.0" customWidth="true"/>
     <col min="69" max="69" width="12.0" customWidth="true"/>
     <col min="70" max="70" width="12.0" customWidth="true"/>
+    <col min="71" max="71" width="12.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1419,13 +1423,16 @@
       <c r="BR3" t="s" s="10">
         <v>71</v>
       </c>
+      <c r="BS3" t="s" s="10">
+        <v>72</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C4" t="n">
         <v>261.0</v>
@@ -1630,14 +1637,17 @@
       </c>
       <c r="BR4" t="n">
         <v>156.0</v>
+      </c>
+      <c r="BS4" t="n">
+        <v>125.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C5" t="n">
         <v>313.0</v>
@@ -1841,15 +1851,18 @@
         <v>147.0</v>
       </c>
       <c r="BR5" t="n">
+        <v>147.0</v>
+      </c>
+      <c r="BS5" t="n">
         <v>147.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C6" t="n">
         <v>751.0</v>
@@ -2054,14 +2067,17 @@
       </c>
       <c r="BR6" t="n">
         <v>455.0</v>
+      </c>
+      <c r="BS6" t="n">
+        <v>314.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C7" t="n">
         <v>103.0</v>
@@ -2266,14 +2282,17 @@
       </c>
       <c r="BR7" t="n">
         <v>79.0</v>
+      </c>
+      <c r="BS7" t="n">
+        <v>70.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C8" t="n">
         <v>45.0</v>
@@ -2477,15 +2496,18 @@
         <v>2.0</v>
       </c>
       <c r="BR8" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BS8" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C9" t="n">
         <v>32.0</v>
@@ -2689,15 +2711,18 @@
         <v>7.0</v>
       </c>
       <c r="BR9" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BS9" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C10" t="n">
         <v>210.0</v>
@@ -2902,14 +2927,17 @@
       </c>
       <c r="BR10" t="n">
         <v>69.0</v>
+      </c>
+      <c r="BS10" t="n">
+        <v>66.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C11" t="n">
         <v>77.0</v>
@@ -3114,14 +3142,17 @@
       </c>
       <c r="BR11" t="n">
         <v>69.0</v>
+      </c>
+      <c r="BS11" t="n">
+        <v>70.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C12" t="n">
         <v>118.0</v>
@@ -3325,15 +3356,18 @@
         <v>10.0</v>
       </c>
       <c r="BR12" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BS12" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C13" t="n">
         <v>46.0</v>
@@ -3538,14 +3572,17 @@
       </c>
       <c r="BR13" t="n">
         <v>21.0</v>
+      </c>
+      <c r="BS13" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C14" t="n">
         <v>461.0</v>
@@ -3750,14 +3787,17 @@
       </c>
       <c r="BR14" t="n">
         <v>1041.0</v>
+      </c>
+      <c r="BS14" t="n">
+        <v>990.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B15" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C15" t="n">
         <v>8.0</v>
@@ -3961,15 +4001,18 @@
         <v>0.0</v>
       </c>
       <c r="BR15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS15" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B16" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C16" t="n">
         <v>171.0</v>
@@ -4174,14 +4217,17 @@
       </c>
       <c r="BR16" t="n">
         <v>118.0</v>
+      </c>
+      <c r="BS16" t="n">
+        <v>112.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C17" t="n">
         <v>1639.0</v>
@@ -4385,15 +4431,18 @@
         <v>1072.0</v>
       </c>
       <c r="BR17" t="n">
+        <v>1072.0</v>
+      </c>
+      <c r="BS17" t="n">
         <v>1072.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B18" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C18" t="n">
         <v>15750.0</v>
@@ -4598,14 +4647,17 @@
       </c>
       <c r="BR18" t="n">
         <v>16125.0</v>
+      </c>
+      <c r="BS18" t="n">
+        <v>15006.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B19" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C19" t="n">
         <v>24.0</v>
@@ -4810,14 +4862,17 @@
       </c>
       <c r="BR19" t="n">
         <v>102.0</v>
+      </c>
+      <c r="BS19" t="n">
+        <v>97.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B20" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C20" t="n">
         <v>5.0</v>
@@ -5021,15 +5076,18 @@
         <v>0.0</v>
       </c>
       <c r="BR20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS20" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B21" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C21" t="n">
         <v>74.0</v>
@@ -5234,14 +5292,17 @@
       </c>
       <c r="BR21" t="n">
         <v>160.0</v>
+      </c>
+      <c r="BS21" t="n">
+        <v>163.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B22" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C22" t="n">
         <v>482.0</v>
@@ -5445,15 +5506,18 @@
         <v>572.0</v>
       </c>
       <c r="BR22" t="n">
+        <v>559.0</v>
+      </c>
+      <c r="BS22" t="n">
         <v>559.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B23" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C23" t="n">
         <v>2730.0</v>
@@ -5658,14 +5722,17 @@
       </c>
       <c r="BR23" t="n">
         <v>4096.0</v>
+      </c>
+      <c r="BS23" t="n">
+        <v>4213.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B24" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C24" t="n">
         <v>854.0</v>
@@ -5869,15 +5936,18 @@
         <v>1173.0</v>
       </c>
       <c r="BR24" t="n">
+        <v>1173.0</v>
+      </c>
+      <c r="BS24" t="n">
         <v>1173.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B25" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C25" t="n">
         <v>182.0</v>
@@ -6082,14 +6152,17 @@
       </c>
       <c r="BR25" t="n">
         <v>9.0</v>
+      </c>
+      <c r="BS25" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C26" t="n">
         <v>15.0</v>
@@ -6293,15 +6366,18 @@
         <v>5.0</v>
       </c>
       <c r="BR26" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BS26" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B27" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C27" t="n">
         <v>38.0</v>
@@ -6506,14 +6582,17 @@
       </c>
       <c r="BR27" t="n">
         <v>18.0</v>
+      </c>
+      <c r="BS27" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B28" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C28" t="n">
         <v>429.0</v>
@@ -6717,15 +6796,18 @@
         <v>189.0</v>
       </c>
       <c r="BR28" t="n">
+        <v>189.0</v>
+      </c>
+      <c r="BS28" t="n">
         <v>189.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B29" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C29" t="n">
         <v>119.0</v>
@@ -6930,14 +7012,17 @@
       </c>
       <c r="BR29" t="n">
         <v>370.0</v>
+      </c>
+      <c r="BS29" t="n">
+        <v>317.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B30" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C30" t="n">
         <v>311.0</v>
@@ -7142,14 +7227,17 @@
       </c>
       <c r="BR30" t="n">
         <v>556.0</v>
+      </c>
+      <c r="BS30" t="n">
+        <v>560.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B31" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C31" t="n">
         <v>197.0</v>
@@ -7354,14 +7442,17 @@
       </c>
       <c r="BR31" t="n">
         <v>611.0</v>
+      </c>
+      <c r="BS31" t="n">
+        <v>601.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B32" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C32" t="n">
         <v>51.0</v>
@@ -7566,14 +7657,17 @@
       </c>
       <c r="BR32" t="n">
         <v>42.0</v>
+      </c>
+      <c r="BS32" t="n">
+        <v>37.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B33" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C33" t="n">
         <v>49.0</v>
@@ -7777,15 +7871,18 @@
         <v>10.0</v>
       </c>
       <c r="BR33" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BS33" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B34" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C34" t="n">
         <v>2029.0</v>
@@ -7989,15 +8086,18 @@
         <v>4551.0</v>
       </c>
       <c r="BR34" t="n">
+        <v>4551.0</v>
+      </c>
+      <c r="BS34" t="n">
         <v>4551.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B35" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C35" t="n">
         <v>71.0</v>
@@ -8202,14 +8302,17 @@
       </c>
       <c r="BR35" t="n">
         <v>178.0</v>
+      </c>
+      <c r="BS35" t="n">
+        <v>177.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B36" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C36" t="n">
         <v>117.0</v>
@@ -8414,14 +8517,17 @@
       </c>
       <c r="BR36" t="n">
         <v>15.0</v>
+      </c>
+      <c r="BS36" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B37" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C37" t="n">
         <v>83.0</v>
@@ -8626,14 +8732,17 @@
       </c>
       <c r="BR37" t="n">
         <v>108.0</v>
+      </c>
+      <c r="BS37" t="n">
+        <v>114.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B38" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C38" t="n">
         <v>133.0</v>
@@ -8838,14 +8947,17 @@
       </c>
       <c r="BR38" t="n">
         <v>20.0</v>
+      </c>
+      <c r="BS38" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B39" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C39" t="n">
         <v>269.0</v>
@@ -9049,15 +9161,18 @@
         <v>321.0</v>
       </c>
       <c r="BR39" t="n">
+        <v>321.0</v>
+      </c>
+      <c r="BS39" t="n">
         <v>321.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B40" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C40" t="n">
         <v>214.0</v>
@@ -9261,15 +9376,18 @@
         <v>0.0</v>
       </c>
       <c r="BR40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS40" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B41" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C41" t="n">
         <v>218.0</v>
@@ -9473,15 +9591,18 @@
         <v>1.0</v>
       </c>
       <c r="BR41" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BS41" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B42" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C42" t="n">
         <v>63.0</v>
@@ -9685,15 +9806,18 @@
         <v>2.0</v>
       </c>
       <c r="BR42" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BS42" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B43" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C43" t="n">
         <v>19.0</v>
@@ -9897,15 +10021,18 @@
         <v>6.0</v>
       </c>
       <c r="BR43" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="BS43" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B44" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C44" t="n">
         <v>38.0</v>
@@ -10109,15 +10236,18 @@
         <v>0.0</v>
       </c>
       <c r="BR44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS44" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B45" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C45" t="n">
         <v>12.0</v>
@@ -10321,15 +10451,18 @@
         <v>1.0</v>
       </c>
       <c r="BR45" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BS45" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B46" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C46" t="n">
         <v>3987.0</v>
@@ -10534,14 +10667,17 @@
       </c>
       <c r="BR46" t="n">
         <v>2293.0</v>
+      </c>
+      <c r="BS46" t="n">
+        <v>1960.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B47" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C47" t="n">
         <v>104.0</v>
@@ -10745,15 +10881,18 @@
         <v>6.0</v>
       </c>
       <c r="BR47" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="BS47" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B48" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C48" t="n">
         <v>91.0</v>
@@ -10957,15 +11096,18 @@
         <v>28.0</v>
       </c>
       <c r="BR48" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BS48" t="n">
         <v>20.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B49" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C49" t="n">
         <v>667.0</v>
@@ -11169,15 +11311,18 @@
         <v>630.0</v>
       </c>
       <c r="BR49" t="n">
+        <v>630.0</v>
+      </c>
+      <c r="BS49" t="n">
         <v>630.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B50" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C50" t="n">
         <v>112.0</v>
@@ -11381,15 +11526,18 @@
         <v>14.0</v>
       </c>
       <c r="BR50" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="BS50" t="n">
         <v>14.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B51" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C51" t="n">
         <v>11.0</v>
@@ -11594,14 +11742,17 @@
       </c>
       <c r="BR51" t="n">
         <v>14.0</v>
+      </c>
+      <c r="BS51" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B52" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C52" t="n">
         <v>249.0</v>
@@ -11805,15 +11956,18 @@
         <v>60.0</v>
       </c>
       <c r="BR52" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="BS52" t="n">
         <v>60.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B53" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C53" t="n">
         <v>318.0</v>
@@ -12018,14 +12172,17 @@
       </c>
       <c r="BR53" t="n">
         <v>147.0</v>
+      </c>
+      <c r="BS53" t="n">
+        <v>177.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B54" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C54" t="n">
         <v>30.0</v>
@@ -12229,15 +12386,18 @@
         <v>0.0</v>
       </c>
       <c r="BR54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS54" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B55" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C55" t="n">
         <v>0.0</v>
@@ -12442,14 +12602,17 @@
       </c>
       <c r="BR55" t="n">
         <v>10.0</v>
+      </c>
+      <c r="BS55" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B56" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C56" t="n">
         <v>8.0</v>
@@ -12653,15 +12816,18 @@
         <v>37.0</v>
       </c>
       <c r="BR56" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="BS56" t="n">
         <v>29.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B57" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C57" t="n">
         <v>40.0</v>
@@ -12865,15 +13031,18 @@
         <v>32.0</v>
       </c>
       <c r="BR57" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="BS57" t="n">
         <v>31.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B58" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C58" t="n">
         <v>44.0</v>
@@ -13078,14 +13247,17 @@
       </c>
       <c r="BR58" t="n">
         <v>11.0</v>
+      </c>
+      <c r="BS58" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B59" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C59" t="n">
         <v>24.0</v>
@@ -13290,14 +13462,17 @@
       </c>
       <c r="BR59" t="n">
         <v>39.0</v>
+      </c>
+      <c r="BS59" t="n">
+        <v>28.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B60" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C60" t="n">
         <v>25147.0</v>
@@ -13502,14 +13677,17 @@
       </c>
       <c r="BR60" t="n">
         <v>18835.0</v>
+      </c>
+      <c r="BS60" t="n">
+        <v>17905.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B61" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C61" t="n">
         <v>161.0</v>
@@ -13714,14 +13892,17 @@
       </c>
       <c r="BR61" t="n">
         <v>7.0</v>
+      </c>
+      <c r="BS61" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B62" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C62" t="n">
         <v>418.0</v>
@@ -13926,14 +14107,17 @@
       </c>
       <c r="BR62" t="n">
         <v>76.0</v>
+      </c>
+      <c r="BS62" t="n">
+        <v>73.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B63" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C63" t="n">
         <v>25.0</v>
@@ -14138,14 +14322,17 @@
       </c>
       <c r="BR63" t="n">
         <v>38.0</v>
+      </c>
+      <c r="BS63" t="n">
+        <v>37.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B64" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C64" t="n">
         <v>8213.0</v>
@@ -14349,15 +14536,18 @@
         <v>14804.0</v>
       </c>
       <c r="BR64" t="n">
+        <v>14804.0</v>
+      </c>
+      <c r="BS64" t="n">
         <v>14804.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B65" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C65" t="n">
         <v>99.0</v>
@@ -14562,14 +14752,17 @@
       </c>
       <c r="BR65" t="n">
         <v>63.0</v>
+      </c>
+      <c r="BS65" t="n">
+        <v>101.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B66" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C66" t="n">
         <v>19.0</v>
@@ -14774,14 +14967,17 @@
       </c>
       <c r="BR66" t="n">
         <v>6.0</v>
+      </c>
+      <c r="BS66" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B67" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C67" t="n">
         <v>44.0</v>
@@ -14986,14 +15182,17 @@
       </c>
       <c r="BR67" t="n">
         <v>65.0</v>
+      </c>
+      <c r="BS67" t="n">
+        <v>61.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C68" t="n">
         <v>47.0</v>
@@ -15198,14 +15397,17 @@
       </c>
       <c r="BR68" t="n">
         <v>17.0</v>
+      </c>
+      <c r="BS68" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B69" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C69" t="n">
         <v>86.0</v>
@@ -15410,14 +15612,17 @@
       </c>
       <c r="BR69" t="n">
         <v>36.0</v>
+      </c>
+      <c r="BS69" t="n">
+        <v>38.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B70" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C70" t="n">
         <v>55.0</v>
@@ -15621,15 +15826,18 @@
         <v>14.0</v>
       </c>
       <c r="BR70" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="BS70" t="n">
         <v>14.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B71" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C71" t="n">
         <v>5924.0</v>
@@ -15834,14 +16042,17 @@
       </c>
       <c r="BR71" t="n">
         <v>1886.0</v>
+      </c>
+      <c r="BS71" t="n">
+        <v>1740.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B72" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C72" t="n">
         <v>14.0</v>
@@ -16045,15 +16256,18 @@
         <v>2.0</v>
       </c>
       <c r="BR72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS72" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C73" t="n">
         <v>856.0</v>
@@ -16257,15 +16471,18 @@
         <v>331.0</v>
       </c>
       <c r="BR73" t="n">
+        <v>331.0</v>
+      </c>
+      <c r="BS73" t="n">
         <v>331.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C74" t="n">
         <v>37353.0</v>
@@ -16470,14 +16687,17 @@
       </c>
       <c r="BR74" t="n">
         <v>7347.0</v>
+      </c>
+      <c r="BS74" t="n">
+        <v>7099.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C75" t="n">
         <v>162.0</v>
@@ -16681,15 +16901,18 @@
         <v>27.0</v>
       </c>
       <c r="BR75" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="BS75" t="n">
         <v>27.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B76" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C76" t="n">
         <v>77.0</v>
@@ -16894,14 +17117,17 @@
       </c>
       <c r="BR76" t="n">
         <v>159.0</v>
+      </c>
+      <c r="BS76" t="n">
+        <v>164.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B77" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C77" t="n">
         <v>151.0</v>
@@ -17106,14 +17332,17 @@
       </c>
       <c r="BR77" t="n">
         <v>32.0</v>
+      </c>
+      <c r="BS77" t="n">
+        <v>30.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B78" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C78" t="n">
         <v>193.0</v>
@@ -17318,14 +17547,17 @@
       </c>
       <c r="BR78" t="n">
         <v>242.0</v>
+      </c>
+      <c r="BS78" t="n">
+        <v>237.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B79" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C79" t="n">
         <v>28.0</v>
@@ -17529,15 +17761,18 @@
         <v>1.0</v>
       </c>
       <c r="BR79" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BS79" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B80" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C80" t="n">
         <v>107.0</v>
@@ -17742,14 +17977,17 @@
       </c>
       <c r="BR80" t="n">
         <v>40.0</v>
+      </c>
+      <c r="BS80" t="n">
+        <v>39.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B81" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C81" t="n">
         <v>0.0</v>
@@ -17953,15 +18191,18 @@
         <v>0.0</v>
       </c>
       <c r="BR81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS81" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B82" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C82" t="n">
         <v>7296.0</v>
@@ -18166,14 +18407,17 @@
       </c>
       <c r="BR82" t="n">
         <v>12823.0</v>
+      </c>
+      <c r="BS82" t="n">
+        <v>12820.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B83" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C83" t="n">
         <v>24.0</v>
@@ -18378,14 +18622,17 @@
       </c>
       <c r="BR83" t="n">
         <v>104.0</v>
+      </c>
+      <c r="BS83" t="n">
+        <v>106.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B84" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C84" t="n">
         <v>129.0</v>
@@ -18590,14 +18837,17 @@
       </c>
       <c r="BR84" t="n">
         <v>107.0</v>
+      </c>
+      <c r="BS84" t="n">
+        <v>109.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B85" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C85" t="n">
         <v>107.0</v>
@@ -18802,14 +19052,17 @@
       </c>
       <c r="BR85" t="n">
         <v>75.0</v>
+      </c>
+      <c r="BS85" t="n">
+        <v>34.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B86" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C86" t="n">
         <v>162.0</v>
@@ -19014,14 +19267,17 @@
       </c>
       <c r="BR86" t="n">
         <v>7.0</v>
+      </c>
+      <c r="BS86" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B87" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C87" t="n">
         <v>2026.0</v>
@@ -19226,14 +19482,17 @@
       </c>
       <c r="BR87" t="n">
         <v>6025.0</v>
+      </c>
+      <c r="BS87" t="n">
+        <v>5923.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B88" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C88" t="n">
         <v>27.0</v>
@@ -19437,15 +19696,18 @@
         <v>21.0</v>
       </c>
       <c r="BR88" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="BS88" t="n">
         <v>17.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B89" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C89" t="n">
         <v>126.0</v>
@@ -19650,14 +19912,17 @@
       </c>
       <c r="BR89" t="n">
         <v>29.0</v>
+      </c>
+      <c r="BS89" t="n">
+        <v>25.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B90" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C90" t="n">
         <v>0.0</v>
@@ -19861,15 +20126,18 @@
         <v>2.0</v>
       </c>
       <c r="BR90" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS90" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B91" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C91" t="n">
         <v>2.0</v>
@@ -20073,15 +20341,18 @@
         <v>14.0</v>
       </c>
       <c r="BR91" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="BS91" t="n">
         <v>14.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B92" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C92" t="n">
         <v>87.0</v>
@@ -20286,14 +20557,17 @@
       </c>
       <c r="BR92" t="n">
         <v>28.0</v>
+      </c>
+      <c r="BS92" t="n">
+        <v>24.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B93" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C93" t="n">
         <v>355.0</v>
@@ -20498,14 +20772,17 @@
       </c>
       <c r="BR93" t="n">
         <v>165.0</v>
+      </c>
+      <c r="BS93" t="n">
+        <v>162.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B94" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C94" t="n">
         <v>420.0</v>
@@ -20710,14 +20987,17 @@
       </c>
       <c r="BR94" t="n">
         <v>169.0</v>
+      </c>
+      <c r="BS94" t="n">
+        <v>159.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B95" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C95" t="n">
         <v>2037.0</v>
@@ -20922,14 +21202,17 @@
       </c>
       <c r="BR95" t="n">
         <v>3121.0</v>
+      </c>
+      <c r="BS95" t="n">
+        <v>3156.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B96" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C96" t="n">
         <v>179.0</v>
@@ -21134,14 +21417,17 @@
       </c>
       <c r="BR96" t="n">
         <v>398.0</v>
+      </c>
+      <c r="BS96" t="n">
+        <v>380.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B97" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C97" t="n">
         <v>401.0</v>
@@ -21346,14 +21632,17 @@
       </c>
       <c r="BR97" t="n">
         <v>220.0</v>
+      </c>
+      <c r="BS97" t="n">
+        <v>195.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B98" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C98" t="n">
         <v>440.0</v>
@@ -21558,14 +21847,17 @@
       </c>
       <c r="BR98" t="n">
         <v>64.0</v>
+      </c>
+      <c r="BS98" t="n">
+        <v>63.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B99" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C99" t="n">
         <v>91.0</v>
@@ -21770,14 +22062,17 @@
       </c>
       <c r="BR99" t="n">
         <v>23.0</v>
+      </c>
+      <c r="BS99" t="n">
+        <v>21.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B100" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C100" t="n">
         <v>53.0</v>
@@ -21982,14 +22277,17 @@
       </c>
       <c r="BR100" t="n">
         <v>55.0</v>
+      </c>
+      <c r="BS100" t="n">
+        <v>53.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B101" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C101" t="n">
         <v>112.0</v>
@@ -22193,15 +22491,18 @@
         <v>39.0</v>
       </c>
       <c r="BR101" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="BS101" t="n">
         <v>35.0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B102" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C102" t="n">
         <v>13.0</v>
@@ -22405,15 +22706,18 @@
         <v>1.0</v>
       </c>
       <c r="BR102" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BS102" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B103" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C103" t="n">
         <v>1162.0</v>
@@ -22617,15 +22921,18 @@
         <v>911.0</v>
       </c>
       <c r="BR103" t="n">
+        <v>911.0</v>
+      </c>
+      <c r="BS103" t="n">
         <v>911.0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B104" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C104" t="n">
         <v>21091.0</v>
@@ -22830,14 +23137,17 @@
       </c>
       <c r="BR104" t="n">
         <v>30760.0</v>
+      </c>
+      <c r="BS104" t="n">
+        <v>29002.0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B105" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C105" t="n">
         <v>239.0</v>
@@ -23042,14 +23352,17 @@
       </c>
       <c r="BR105" t="n">
         <v>869.0</v>
+      </c>
+      <c r="BS105" t="n">
+        <v>865.0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B106" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C106" t="n">
         <v>61.0</v>
@@ -23253,15 +23566,18 @@
         <v>38.0</v>
       </c>
       <c r="BR106" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="BS106" t="n">
         <v>19.0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B107" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C107" t="n">
         <v>13.0</v>
@@ -23465,15 +23781,18 @@
         <v>2.0</v>
       </c>
       <c r="BR107" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BS107" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B108" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C108" t="n">
         <v>982.0</v>
@@ -23677,15 +23996,18 @@
         <v>1397.0</v>
       </c>
       <c r="BR108" t="n">
+        <v>1397.0</v>
+      </c>
+      <c r="BS108" t="n">
         <v>1397.0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B109" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C109" t="n">
         <v>55.0</v>
@@ -23890,14 +24212,17 @@
       </c>
       <c r="BR109" t="n">
         <v>22.0</v>
+      </c>
+      <c r="BS109" t="n">
+        <v>21.0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B110" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C110" t="n">
         <v>1131.0</v>
@@ -24102,14 +24427,17 @@
       </c>
       <c r="BR110" t="n">
         <v>1701.0</v>
+      </c>
+      <c r="BS110" t="n">
+        <v>1753.0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B111" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C111" t="n">
         <v>2517.0</v>
@@ -24314,14 +24642,17 @@
       </c>
       <c r="BR111" t="n">
         <v>1942.0</v>
+      </c>
+      <c r="BS111" t="n">
+        <v>1973.0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B112" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C112" t="n">
         <v>327.0</v>
@@ -24526,14 +24857,17 @@
       </c>
       <c r="BR112" t="n">
         <v>497.0</v>
+      </c>
+      <c r="BS112" t="n">
+        <v>482.0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B113" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C113" t="n">
         <v>256.0</v>
@@ -24738,14 +25072,17 @@
       </c>
       <c r="BR113" t="n">
         <v>70.0</v>
+      </c>
+      <c r="BS113" t="n">
+        <v>66.0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B114" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C114" t="n">
         <v>280.0</v>
@@ -24949,15 +25286,18 @@
         <v>76.0</v>
       </c>
       <c r="BR114" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="BS114" t="n">
         <v>76.0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B115" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C115" t="n">
         <v>225.0</v>
@@ -25162,14 +25502,17 @@
       </c>
       <c r="BR115" t="n">
         <v>192.0</v>
+      </c>
+      <c r="BS115" t="n">
+        <v>181.0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B116" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C116" t="n">
         <v>54.0</v>
@@ -25374,14 +25717,17 @@
       </c>
       <c r="BR116" t="n">
         <v>83.0</v>
+      </c>
+      <c r="BS116" t="n">
+        <v>82.0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B117" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C117" t="n">
         <v>594.0</v>
@@ -25586,14 +25932,17 @@
       </c>
       <c r="BR117" t="n">
         <v>84.0</v>
+      </c>
+      <c r="BS117" t="n">
+        <v>74.0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B118" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C118" t="n">
         <v>64.0</v>
@@ -25798,14 +26147,17 @@
       </c>
       <c r="BR118" t="n">
         <v>18.0</v>
+      </c>
+      <c r="BS118" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B119" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C119" t="n">
         <v>321.0</v>
@@ -26009,15 +26361,18 @@
         <v>1334.0</v>
       </c>
       <c r="BR119" t="n">
+        <v>1333.0</v>
+      </c>
+      <c r="BS119" t="n">
         <v>1333.0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B120" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C120" t="n">
         <v>264.0</v>
@@ -26222,14 +26577,17 @@
       </c>
       <c r="BR120" t="n">
         <v>72.0</v>
+      </c>
+      <c r="BS120" t="n">
+        <v>70.0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B121" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C121" t="n">
         <v>0.0</v>
@@ -26433,15 +26791,18 @@
         <v>15.0</v>
       </c>
       <c r="BR121" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="BS121" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B122" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C122" t="n">
         <v>17.0</v>
@@ -26645,15 +27006,18 @@
         <v>6.0</v>
       </c>
       <c r="BR122" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="BS122" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B123" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C123" t="n">
         <v>58.0</v>
@@ -26858,14 +27222,17 @@
       </c>
       <c r="BR123" t="n">
         <v>18.0</v>
+      </c>
+      <c r="BS123" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B124" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C124" t="n">
         <v>138.0</v>
@@ -27070,14 +27437,17 @@
       </c>
       <c r="BR124" t="n">
         <v>71.0</v>
+      </c>
+      <c r="BS124" t="n">
+        <v>47.0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B125" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C125" t="n">
         <v>19.0</v>
@@ -27282,14 +27652,17 @@
       </c>
       <c r="BR125" t="n">
         <v>39.0</v>
+      </c>
+      <c r="BS125" t="n">
+        <v>38.0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B126" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C126" t="n">
         <v>2137.0</v>
@@ -27494,14 +27867,17 @@
       </c>
       <c r="BR126" t="n">
         <v>2419.0</v>
+      </c>
+      <c r="BS126" t="n">
+        <v>2367.0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B127" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C127" t="n">
         <v>42.0</v>
@@ -27706,14 +28082,17 @@
       </c>
       <c r="BR127" t="n">
         <v>50.0</v>
+      </c>
+      <c r="BS127" t="n">
+        <v>47.0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B128" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C128" t="n">
         <v>248.0</v>
@@ -27918,14 +28297,17 @@
       </c>
       <c r="BR128" t="n">
         <v>92.0</v>
+      </c>
+      <c r="BS128" t="n">
+        <v>88.0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B129" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C129" t="n">
         <v>846.0</v>
@@ -28130,14 +28512,17 @@
       </c>
       <c r="BR129" t="n">
         <v>254.0</v>
+      </c>
+      <c r="BS129" t="n">
+        <v>253.0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B130" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C130" t="n">
         <v>658.0</v>
@@ -28341,15 +28726,18 @@
         <v>108.0</v>
       </c>
       <c r="BR130" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="BS130" t="n">
         <v>108.0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B131" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C131" t="n">
         <v>44.0</v>
@@ -28554,14 +28942,17 @@
       </c>
       <c r="BR131" t="n">
         <v>25.0</v>
+      </c>
+      <c r="BS131" t="n">
+        <v>23.0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B132" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C132" t="n">
         <v>524.0</v>
@@ -28765,15 +29156,18 @@
         <v>313.0</v>
       </c>
       <c r="BR132" t="n">
+        <v>313.0</v>
+      </c>
+      <c r="BS132" t="n">
         <v>313.0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B133" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C133" t="n">
         <v>120.0</v>
@@ -28978,14 +29372,17 @@
       </c>
       <c r="BR133" t="n">
         <v>73.0</v>
+      </c>
+      <c r="BS133" t="n">
+        <v>54.0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B134" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C134" t="n">
         <v>2.0</v>
@@ -29189,15 +29586,18 @@
         <v>3.0</v>
       </c>
       <c r="BR134" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BS134" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B135" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C135" t="n">
         <v>3.0</v>
@@ -29401,15 +29801,18 @@
         <v>0.0</v>
       </c>
       <c r="BR135" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS135" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B136" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C136" t="n">
         <v>241.0</v>
@@ -29614,14 +30017,17 @@
       </c>
       <c r="BR136" t="n">
         <v>71.0</v>
+      </c>
+      <c r="BS136" t="n">
+        <v>58.0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B137" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C137" t="n">
         <v>6.0</v>
@@ -29825,15 +30231,18 @@
         <v>15.0</v>
       </c>
       <c r="BR137" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="BS137" t="n">
         <v>15.0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B138" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C138" t="n">
         <v>3.0</v>
@@ -30037,15 +30446,18 @@
         <v>0.0</v>
       </c>
       <c r="BR138" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS138" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B139" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C139" t="n">
         <v>5.0</v>
@@ -30249,15 +30661,18 @@
         <v>1.0</v>
       </c>
       <c r="BR139" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BS139" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B140" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C140" t="n">
         <v>108.0</v>
@@ -30462,14 +30877,17 @@
       </c>
       <c r="BR140" t="n">
         <v>97.0</v>
+      </c>
+      <c r="BS140" t="n">
+        <v>90.0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B141" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C141" t="n">
         <v>4.0</v>
@@ -30673,15 +31091,18 @@
         <v>0.0</v>
       </c>
       <c r="BR141" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS141" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B142" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C142" t="n">
         <v>410.0</v>
@@ -30886,14 +31307,17 @@
       </c>
       <c r="BR142" t="n">
         <v>226.0</v>
+      </c>
+      <c r="BS142" t="n">
+        <v>334.0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B143" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C143" t="n">
         <v>354.0</v>
@@ -31097,15 +31521,18 @@
         <v>42.0</v>
       </c>
       <c r="BR143" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="BS143" t="n">
         <v>41.0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B144" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C144" t="n">
         <v>113.0</v>
@@ -31310,14 +31737,17 @@
       </c>
       <c r="BR144" t="n">
         <v>360.0</v>
+      </c>
+      <c r="BS144" t="n">
+        <v>334.0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B145" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C145" t="n">
         <v>76.0</v>
@@ -31522,14 +31952,17 @@
       </c>
       <c r="BR145" t="n">
         <v>104.0</v>
+      </c>
+      <c r="BS145" t="n">
+        <v>61.0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B146" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C146" t="n">
         <v>47.0</v>
@@ -31734,14 +32167,17 @@
       </c>
       <c r="BR146" t="n">
         <v>20.0</v>
+      </c>
+      <c r="BS146" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B147" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C147" t="n">
         <v>123.0</v>
@@ -31946,14 +32382,17 @@
       </c>
       <c r="BR147" t="n">
         <v>292.0</v>
+      </c>
+      <c r="BS147" t="n">
+        <v>273.0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B148" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C148" t="n">
         <v>98.0</v>
@@ -32158,14 +32597,17 @@
       </c>
       <c r="BR148" t="n">
         <v>166.0</v>
+      </c>
+      <c r="BS148" t="n">
+        <v>161.0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B149" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C149" t="n">
         <v>203.0</v>
@@ -32370,14 +32812,17 @@
       </c>
       <c r="BR149" t="n">
         <v>424.0</v>
+      </c>
+      <c r="BS149" t="n">
+        <v>371.0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B150" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C150" t="n">
         <v>137.0</v>
@@ -32582,14 +33027,17 @@
       </c>
       <c r="BR150" t="n">
         <v>357.0</v>
+      </c>
+      <c r="BS150" t="n">
+        <v>344.0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B151" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C151" t="n">
         <v>53.0</v>
@@ -32794,14 +33242,17 @@
       </c>
       <c r="BR151" t="n">
         <v>15.0</v>
+      </c>
+      <c r="BS151" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B152" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C152" t="n">
         <v>137.0</v>
@@ -33006,14 +33457,17 @@
       </c>
       <c r="BR152" t="n">
         <v>49.0</v>
+      </c>
+      <c r="BS152" t="n">
+        <v>43.0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B153" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C153" t="n">
         <v>133.0</v>
@@ -33218,14 +33672,17 @@
       </c>
       <c r="BR153" t="n">
         <v>222.0</v>
+      </c>
+      <c r="BS153" t="n">
+        <v>217.0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B154" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C154" t="n">
         <v>0.0</v>
@@ -33429,15 +33886,18 @@
         <v>0.0</v>
       </c>
       <c r="BR154" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS154" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B155" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C155" t="n">
         <v>4535.0</v>
@@ -33642,14 +34102,17 @@
       </c>
       <c r="BR155" t="n">
         <v>532.0</v>
+      </c>
+      <c r="BS155" t="n">
+        <v>544.0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B156" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C156" t="n">
         <v>83.0</v>
@@ -33854,14 +34317,17 @@
       </c>
       <c r="BR156" t="n">
         <v>6.0</v>
+      </c>
+      <c r="BS156" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B157" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C157" t="n">
         <v>41.0</v>
@@ -34066,14 +34532,17 @@
       </c>
       <c r="BR157" t="n">
         <v>28.0</v>
+      </c>
+      <c r="BS157" t="n">
+        <v>22.0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B158" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C158" t="n">
         <v>1147.0</v>
@@ -34277,15 +34746,18 @@
         <v>269.0</v>
       </c>
       <c r="BR158" t="n">
+        <v>269.0</v>
+      </c>
+      <c r="BS158" t="n">
         <v>269.0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B159" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C159" t="n">
         <v>7.0</v>
@@ -34489,15 +34961,18 @@
         <v>6.0</v>
       </c>
       <c r="BR159" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="BS159" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B160" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C160" t="n">
         <v>62.0</v>
@@ -34702,14 +35177,17 @@
       </c>
       <c r="BR160" t="n">
         <v>149.0</v>
+      </c>
+      <c r="BS160" t="n">
+        <v>147.0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B161" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C161" t="n">
         <v>14.0</v>
@@ -34914,14 +35392,17 @@
       </c>
       <c r="BR161" t="n">
         <v>120.0</v>
+      </c>
+      <c r="BS161" t="n">
+        <v>121.0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B162" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C162" t="n">
         <v>88.0</v>
@@ -35126,14 +35607,17 @@
       </c>
       <c r="BR162" t="n">
         <v>23.0</v>
+      </c>
+      <c r="BS162" t="n">
+        <v>24.0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B163" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C163" t="n">
         <v>31.0</v>
@@ -35338,14 +35822,17 @@
       </c>
       <c r="BR163" t="n">
         <v>27.0</v>
+      </c>
+      <c r="BS163" t="n">
+        <v>31.0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B164" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C164" t="n">
         <v>83.0</v>
@@ -35550,14 +36037,17 @@
       </c>
       <c r="BR164" t="n">
         <v>134.0</v>
+      </c>
+      <c r="BS164" t="n">
+        <v>135.0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B165" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C165" t="n">
         <v>632.0</v>
@@ -35761,15 +36251,18 @@
         <v>1324.0</v>
       </c>
       <c r="BR165" t="n">
+        <v>1324.0</v>
+      </c>
+      <c r="BS165" t="n">
         <v>1324.0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B166" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C166" t="n">
         <v>148.0</v>
@@ -35974,14 +36467,17 @@
       </c>
       <c r="BR166" t="n">
         <v>45.0</v>
+      </c>
+      <c r="BS166" t="n">
+        <v>49.0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B167" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C167" t="n">
         <v>17.0</v>
@@ -36185,15 +36681,18 @@
         <v>0.0</v>
       </c>
       <c r="BR167" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS167" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B168" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C168" t="n">
         <v>1564.0</v>
@@ -36398,14 +36897,17 @@
       </c>
       <c r="BR168" t="n">
         <v>917.0</v>
+      </c>
+      <c r="BS168" t="n">
+        <v>918.0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B169" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C169" t="n">
         <v>123.0</v>
@@ -36609,15 +37111,18 @@
         <v>175.0</v>
       </c>
       <c r="BR169" t="n">
+        <v>175.0</v>
+      </c>
+      <c r="BS169" t="n">
         <v>175.0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B170" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C170" t="n">
         <v>56.0</v>
@@ -36822,14 +37327,17 @@
       </c>
       <c r="BR170" t="n">
         <v>78.0</v>
+      </c>
+      <c r="BS170" t="n">
+        <v>83.0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B171" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C171" t="n">
         <v>83.0</v>
@@ -37033,15 +37541,18 @@
         <v>4.0</v>
       </c>
       <c r="BR171" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BS171" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B172" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C172" t="n">
         <v>89.0</v>
@@ -37245,15 +37756,18 @@
         <v>19.0</v>
       </c>
       <c r="BR172" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="BS172" t="n">
         <v>19.0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B173" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C173" t="n">
         <v>8150.0</v>
@@ -37458,14 +37972,17 @@
       </c>
       <c r="BR173" t="n">
         <v>22214.0</v>
+      </c>
+      <c r="BS173" t="n">
+        <v>22213.0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B174" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C174" t="n">
         <v>193.0</v>
@@ -37670,14 +38187,17 @@
       </c>
       <c r="BR174" t="n">
         <v>29.0</v>
+      </c>
+      <c r="BS174" t="n">
+        <v>25.0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B175" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C175" t="n">
         <v>22.0</v>
@@ -37881,15 +38401,18 @@
         <v>134.0</v>
       </c>
       <c r="BR175" t="n">
+        <v>133.0</v>
+      </c>
+      <c r="BS175" t="n">
         <v>133.0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B176" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C176" t="n">
         <v>26.0</v>
@@ -38093,15 +38616,18 @@
         <v>2.0</v>
       </c>
       <c r="BR176" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BS176" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B177" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C177" t="n">
         <v>204.0</v>
@@ -38306,14 +38832,17 @@
       </c>
       <c r="BR177" t="n">
         <v>285.0</v>
+      </c>
+      <c r="BS177" t="n">
+        <v>276.0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B178" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C178" t="n">
         <v>251.0</v>
@@ -38518,14 +39047,17 @@
       </c>
       <c r="BR178" t="n">
         <v>207.0</v>
+      </c>
+      <c r="BS178" t="n">
+        <v>206.0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B179" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C179" t="n">
         <v>26.0</v>
@@ -38730,14 +39262,17 @@
       </c>
       <c r="BR179" t="n">
         <v>13.0</v>
+      </c>
+      <c r="BS179" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B180" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C180" t="n">
         <v>265.0</v>
@@ -38942,14 +39477,17 @@
       </c>
       <c r="BR180" t="n">
         <v>113.0</v>
+      </c>
+      <c r="BS180" t="n">
+        <v>98.0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B181" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C181" t="n">
         <v>2099.0</v>
@@ -39154,14 +39692,17 @@
       </c>
       <c r="BR181" t="n">
         <v>1686.0</v>
+      </c>
+      <c r="BS181" t="n">
+        <v>1569.0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B182" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C182" t="n">
         <v>247.0</v>
@@ -39366,14 +39907,17 @@
       </c>
       <c r="BR182" t="n">
         <v>18.0</v>
+      </c>
+      <c r="BS182" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B183" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C183" t="n">
         <v>48.0</v>
@@ -39578,14 +40122,17 @@
       </c>
       <c r="BR183" t="n">
         <v>24.0</v>
+      </c>
+      <c r="BS183" t="n">
+        <v>21.0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B184" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C184" t="n">
         <v>1991.0</v>
@@ -39790,14 +40337,17 @@
       </c>
       <c r="BR184" t="n">
         <v>1421.0</v>
+      </c>
+      <c r="BS184" t="n">
+        <v>1419.0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B185" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C185" t="n">
         <v>121.0</v>
@@ -40001,15 +40551,18 @@
         <v>36.0</v>
       </c>
       <c r="BR185" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="BS185" t="n">
         <v>36.0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B186" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C186" t="n">
         <v>92.0</v>
@@ -40214,14 +40767,17 @@
       </c>
       <c r="BR186" t="n">
         <v>146.0</v>
+      </c>
+      <c r="BS186" t="n">
+        <v>141.0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B187" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C187" t="n">
         <v>611.0</v>
@@ -40425,15 +40981,18 @@
         <v>295.0</v>
       </c>
       <c r="BR187" t="n">
+        <v>295.0</v>
+      </c>
+      <c r="BS187" t="n">
         <v>295.0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B188" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C188" t="n">
         <v>160.0</v>
@@ -40637,15 +41196,18 @@
         <v>13.0</v>
       </c>
       <c r="BR188" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="BS188" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B189" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C189" t="n">
         <v>160.0</v>
@@ -40850,14 +41412,17 @@
       </c>
       <c r="BR189" t="n">
         <v>49.0</v>
+      </c>
+      <c r="BS189" t="n">
+        <v>41.0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B190" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C190" t="n">
         <v>303.0</v>
@@ -41062,14 +41627,17 @@
       </c>
       <c r="BR190" t="n">
         <v>171.0</v>
+      </c>
+      <c r="BS190" t="n">
+        <v>114.0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B191" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C191" t="n">
         <v>3236.0</v>
@@ -41273,15 +41841,18 @@
         <v>586.0</v>
       </c>
       <c r="BR191" t="n">
+        <v>586.0</v>
+      </c>
+      <c r="BS191" t="n">
         <v>586.0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B192" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C192" t="n">
         <v>118.0</v>
@@ -41486,14 +42057,17 @@
       </c>
       <c r="BR192" t="n">
         <v>92.0</v>
+      </c>
+      <c r="BS192" t="n">
+        <v>95.0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B193" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C193" t="n">
         <v>220.0</v>
@@ -41698,14 +42272,17 @@
       </c>
       <c r="BR193" t="n">
         <v>201.0</v>
+      </c>
+      <c r="BS193" t="n">
+        <v>203.0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B194" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C194" t="n">
         <v>3899.0</v>
@@ -41909,15 +42486,18 @@
         <v>708.0</v>
       </c>
       <c r="BR194" t="n">
+        <v>708.0</v>
+      </c>
+      <c r="BS194" t="n">
         <v>708.0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B195" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C195" t="n">
         <v>4.0</v>
@@ -42122,14 +42702,17 @@
       </c>
       <c r="BR195" t="n">
         <v>9.0</v>
+      </c>
+      <c r="BS195" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B196" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C196" t="n">
         <v>8.0</v>
@@ -42333,15 +42916,18 @@
         <v>1.0</v>
       </c>
       <c r="BR196" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS196" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B197" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C197" t="n">
         <v>49.0</v>
@@ -42546,14 +43132,17 @@
       </c>
       <c r="BR197" t="n">
         <v>22.0</v>
+      </c>
+      <c r="BS197" t="n">
+        <v>21.0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B198" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C198" t="n">
         <v>255.0</v>
@@ -42758,14 +43347,17 @@
       </c>
       <c r="BR198" t="n">
         <v>98.0</v>
+      </c>
+      <c r="BS198" t="n">
+        <v>87.0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B199" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C199" t="n">
         <v>44.0</v>
@@ -42969,15 +43561,18 @@
         <v>29.0</v>
       </c>
       <c r="BR199" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="BS199" t="n">
         <v>24.0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B200" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C200" t="n">
         <v>7.0</v>
@@ -43181,15 +43776,18 @@
         <v>1.0</v>
       </c>
       <c r="BR200" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BS200" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B201" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C201" t="n">
         <v>121.0</v>
@@ -43394,14 +43992,17 @@
       </c>
       <c r="BR201" t="n">
         <v>250.0</v>
+      </c>
+      <c r="BS201" t="n">
+        <v>241.0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B202" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C202" t="n">
         <v>387.0</v>
@@ -43605,15 +44206,18 @@
         <v>216.0</v>
       </c>
       <c r="BR202" t="n">
+        <v>216.0</v>
+      </c>
+      <c r="BS202" t="n">
         <v>216.0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B203" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C203" t="n">
         <v>78.0</v>
@@ -43817,15 +44421,18 @@
         <v>5.0</v>
       </c>
       <c r="BR203" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BS203" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B204" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C204" t="n">
         <v>292.0</v>
@@ -44030,14 +44637,17 @@
       </c>
       <c r="BR204" t="n">
         <v>385.0</v>
+      </c>
+      <c r="BS204" t="n">
+        <v>381.0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B205" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C205" t="n">
         <v>38.0</v>
@@ -44241,15 +44851,18 @@
         <v>0.0</v>
       </c>
       <c r="BR205" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS205" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B206" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C206" t="n">
         <v>49.0</v>
@@ -44454,14 +45067,17 @@
       </c>
       <c r="BR206" t="n">
         <v>18.0</v>
+      </c>
+      <c r="BS206" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B207" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C207" t="n">
         <v>41.0</v>
@@ -44666,14 +45282,17 @@
       </c>
       <c r="BR207" t="n">
         <v>202.0</v>
+      </c>
+      <c r="BS207" t="n">
+        <v>199.0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B208" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C208" t="n">
         <v>121.0</v>
@@ -44877,15 +45496,18 @@
         <v>187.0</v>
       </c>
       <c r="BR208" t="n">
+        <v>187.0</v>
+      </c>
+      <c r="BS208" t="n">
         <v>187.0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B209" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C209" t="n">
         <v>36.0</v>
@@ -45090,14 +45712,17 @@
       </c>
       <c r="BR209" t="n">
         <v>112.0</v>
+      </c>
+      <c r="BS209" t="n">
+        <v>108.0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B210" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C210" t="n">
         <v>18.0</v>
@@ -45302,14 +45927,17 @@
       </c>
       <c r="BR210" t="n">
         <v>8.0</v>
+      </c>
+      <c r="BS210" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B211" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C211" t="n">
         <v>97.0</v>
@@ -45513,15 +46141,18 @@
         <v>53.0</v>
       </c>
       <c r="BR211" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="BS211" t="n">
         <v>53.0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B212" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C212" t="n">
         <v>6.0</v>
@@ -45725,15 +46356,18 @@
         <v>3.0</v>
       </c>
       <c r="BR212" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BS212" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B213" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C213" t="n">
         <v>71.0</v>
@@ -45938,14 +46572,17 @@
       </c>
       <c r="BR213" t="n">
         <v>123.0</v>
+      </c>
+      <c r="BS213" t="n">
+        <v>116.0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B214" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C214" t="n">
         <v>9.0</v>
@@ -46149,15 +46786,18 @@
         <v>5.0</v>
       </c>
       <c r="BR214" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BS214" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B215" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C215" t="n">
         <v>4596.0</v>
@@ -46362,14 +47002,17 @@
       </c>
       <c r="BR215" t="n">
         <v>5648.0</v>
+      </c>
+      <c r="BS215" t="n">
+        <v>5708.0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B216" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C216" t="n">
         <v>48.0</v>
@@ -46573,15 +47216,18 @@
         <v>5.0</v>
       </c>
       <c r="BR216" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BS216" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B217" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C217" t="n">
         <v>654.0</v>
@@ -46786,14 +47432,17 @@
       </c>
       <c r="BR217" t="n">
         <v>330.0</v>
+      </c>
+      <c r="BS217" t="n">
+        <v>299.0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B218" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C218" t="n">
         <v>84.0</v>
@@ -46997,15 +47646,18 @@
         <v>10.0</v>
       </c>
       <c r="BR218" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BS218" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B219" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C219" t="n">
         <v>18.0</v>
@@ -47210,14 +47862,17 @@
       </c>
       <c r="BR219" t="n">
         <v>3.0</v>
+      </c>
+      <c r="BS219" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B220" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C220" t="n">
         <v>5.0</v>
@@ -47421,15 +48076,18 @@
         <v>0.0</v>
       </c>
       <c r="BR220" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS220" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B221" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C221" t="n">
         <v>58.0</v>
@@ -47634,14 +48292,17 @@
       </c>
       <c r="BR221" t="n">
         <v>24.0</v>
+      </c>
+      <c r="BS221" t="n">
+        <v>22.0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B222" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C222" t="n">
         <v>159.0</v>
@@ -47846,14 +48507,17 @@
       </c>
       <c r="BR222" t="n">
         <v>24.0</v>
+      </c>
+      <c r="BS222" t="n">
+        <v>22.0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B223" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C223" t="n">
         <v>31380.0</v>
@@ -48058,14 +48722,17 @@
       </c>
       <c r="BR223" t="n">
         <v>30918.0</v>
+      </c>
+      <c r="BS223" t="n">
+        <v>28092.0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B224" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C224" t="n">
         <v>2592.0</v>
@@ -48269,15 +48936,18 @@
         <v>1278.0</v>
       </c>
       <c r="BR224" t="n">
+        <v>1278.0</v>
+      </c>
+      <c r="BS224" t="n">
         <v>1278.0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B225" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C225" t="n">
         <v>11.0</v>
@@ -48481,15 +49151,18 @@
         <v>0.0</v>
       </c>
       <c r="BR225" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS225" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B226" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C226" t="n">
         <v>312.0</v>
@@ -48694,14 +49367,17 @@
       </c>
       <c r="BR226" t="n">
         <v>10.0</v>
+      </c>
+      <c r="BS226" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B227" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C227" t="n">
         <v>0.0</v>
@@ -48905,15 +49581,18 @@
         <v>0.0</v>
       </c>
       <c r="BR227" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS227" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B228" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C228" t="n">
         <v>179.0</v>
@@ -49118,14 +49797,17 @@
       </c>
       <c r="BR228" t="n">
         <v>445.0</v>
+      </c>
+      <c r="BS228" t="n">
+        <v>433.0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B229" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C229" t="n">
         <v>1510.0</v>
@@ -49330,14 +50012,17 @@
       </c>
       <c r="BR229" t="n">
         <v>369.0</v>
+      </c>
+      <c r="BS229" t="n">
+        <v>333.0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B230" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C230" t="n">
         <v>3091.0</v>
@@ -49541,15 +50226,18 @@
         <v>3368.0</v>
       </c>
       <c r="BR230" t="n">
+        <v>3368.0</v>
+      </c>
+      <c r="BS230" t="n">
         <v>3368.0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B231" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C231" t="n">
         <v>17.0</v>
@@ -49754,14 +50442,17 @@
       </c>
       <c r="BR231" t="n">
         <v>69.0</v>
+      </c>
+      <c r="BS231" t="n">
+        <v>64.0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B232" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C232" t="n">
         <v>124.0</v>
@@ -49966,14 +50657,17 @@
       </c>
       <c r="BR232" t="n">
         <v>19.0</v>
+      </c>
+      <c r="BS232" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B233" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C233" t="n">
         <v>165.0</v>
@@ -50178,14 +50872,17 @@
       </c>
       <c r="BR233" t="n">
         <v>508.0</v>
+      </c>
+      <c r="BS233" t="n">
+        <v>498.0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B234" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C234" t="n">
         <v>25.0</v>
@@ -50390,14 +51087,17 @@
       </c>
       <c r="BR234" t="n">
         <v>16.0</v>
+      </c>
+      <c r="BS234" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B235" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C235" t="n">
         <v>70.0</v>
@@ -50602,14 +51302,17 @@
       </c>
       <c r="BR235" t="n">
         <v>53.0</v>
+      </c>
+      <c r="BS235" t="n">
+        <v>38.0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B236" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C236" t="n">
         <v>323.0</v>
@@ -50813,15 +51516,18 @@
         <v>501.0</v>
       </c>
       <c r="BR236" t="n">
+        <v>501.0</v>
+      </c>
+      <c r="BS236" t="n">
         <v>501.0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B237" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C237" t="n">
         <v>1023.0</v>
@@ -51026,14 +51732,17 @@
       </c>
       <c r="BR237" t="n">
         <v>1319.0</v>
+      </c>
+      <c r="BS237" t="n">
+        <v>1338.0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B238" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C238" t="n">
         <v>243.0</v>
@@ -51237,15 +51946,18 @@
         <v>620.0</v>
       </c>
       <c r="BR238" t="n">
+        <v>544.0</v>
+      </c>
+      <c r="BS238" t="n">
         <v>544.0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B239" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C239" t="n">
         <v>230.0</v>
@@ -51450,14 +52162,17 @@
       </c>
       <c r="BR239" t="n">
         <v>389.0</v>
+      </c>
+      <c r="BS239" t="n">
+        <v>426.0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B240" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C240" t="n">
         <v>135.0</v>
@@ -51662,14 +52377,17 @@
       </c>
       <c r="BR240" t="n">
         <v>141.0</v>
+      </c>
+      <c r="BS240" t="n">
+        <v>140.0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B241" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C241" t="n">
         <v>125.0</v>
@@ -51874,14 +52592,17 @@
       </c>
       <c r="BR241" t="n">
         <v>56.0</v>
+      </c>
+      <c r="BS241" t="n">
+        <v>62.0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B242" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C242" t="n">
         <v>189.0</v>
@@ -52086,14 +52807,17 @@
       </c>
       <c r="BR242" t="n">
         <v>520.0</v>
+      </c>
+      <c r="BS242" t="n">
+        <v>502.0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B243" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C243" t="n">
         <v>3689.0</v>
@@ -52298,14 +53022,17 @@
       </c>
       <c r="BR243" t="n">
         <v>2872.0</v>
+      </c>
+      <c r="BS243" t="n">
+        <v>2888.0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B244" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C244" t="n">
         <v>131.0</v>
@@ -52510,14 +53237,17 @@
       </c>
       <c r="BR244" t="n">
         <v>156.0</v>
+      </c>
+      <c r="BS244" t="n">
+        <v>157.0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B245" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C245" t="n">
         <v>79.0</v>
@@ -52722,14 +53452,17 @@
       </c>
       <c r="BR245" t="n">
         <v>20.0</v>
+      </c>
+      <c r="BS245" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B246" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C246" t="n">
         <v>2591.0</v>
@@ -52933,15 +53666,18 @@
         <v>412.0</v>
       </c>
       <c r="BR246" t="n">
+        <v>412.0</v>
+      </c>
+      <c r="BS246" t="n">
         <v>412.0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B247" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C247" t="n">
         <v>41.0</v>
@@ -53145,15 +53881,18 @@
         <v>8.0</v>
       </c>
       <c r="BR247" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="BS247" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B248" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C248" t="n">
         <v>146.0</v>
@@ -53358,14 +54097,17 @@
       </c>
       <c r="BR248" t="n">
         <v>141.0</v>
+      </c>
+      <c r="BS248" t="n">
+        <v>123.0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B249" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C249" t="n">
         <v>1135.0</v>
@@ -53569,15 +54311,18 @@
         <v>915.0</v>
       </c>
       <c r="BR249" t="n">
+        <v>915.0</v>
+      </c>
+      <c r="BS249" t="n">
         <v>915.0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B250" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C250" t="n">
         <v>176.0</v>
@@ -53782,14 +54527,17 @@
       </c>
       <c r="BR250" t="n">
         <v>55.0</v>
+      </c>
+      <c r="BS250" t="n">
+        <v>41.0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B251" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C251" t="n">
         <v>126.0</v>
@@ -53994,14 +54742,17 @@
       </c>
       <c r="BR251" t="n">
         <v>23.0</v>
+      </c>
+      <c r="BS251" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B252" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C252" t="n">
         <v>350.0</v>
@@ -54205,15 +54956,18 @@
         <v>130.0</v>
       </c>
       <c r="BR252" t="n">
+        <v>130.0</v>
+      </c>
+      <c r="BS252" t="n">
         <v>130.0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B253" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C253" t="n">
         <v>357.0</v>
@@ -54418,14 +55172,17 @@
       </c>
       <c r="BR253" t="n">
         <v>1012.0</v>
+      </c>
+      <c r="BS253" t="n">
+        <v>1023.0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B254" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C254" t="n">
         <v>112.0</v>
@@ -54630,14 +55387,17 @@
       </c>
       <c r="BR254" t="n">
         <v>9.0</v>
+      </c>
+      <c r="BS254" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B255" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C255" t="n">
         <v>68.0</v>
@@ -54841,15 +55601,18 @@
         <v>36.0</v>
       </c>
       <c r="BR255" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="BS255" t="n">
         <v>36.0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B256" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C256" t="n">
         <v>180.0</v>
@@ -55054,14 +55817,17 @@
       </c>
       <c r="BR256" t="n">
         <v>159.0</v>
+      </c>
+      <c r="BS256" t="n">
+        <v>138.0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B257" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C257" t="n">
         <v>35.0</v>
@@ -55265,15 +56031,18 @@
         <v>93.0</v>
       </c>
       <c r="BR257" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="BS257" t="n">
         <v>49.0</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B258" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C258"/>
       <c r="D258"/>
@@ -55343,13 +56112,14 @@
       <c r="BP258"/>
       <c r="BQ258"/>
       <c r="BR258"/>
+      <c r="BS258"/>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B259" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C259"/>
       <c r="D259"/>
@@ -55419,13 +56189,14 @@
       <c r="BP259"/>
       <c r="BQ259"/>
       <c r="BR259"/>
+      <c r="BS259"/>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B260" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C260"/>
       <c r="D260"/>
@@ -55495,13 +56266,14 @@
       <c r="BP260"/>
       <c r="BQ260"/>
       <c r="BR260"/>
+      <c r="BS260"/>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B261" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C261"/>
       <c r="D261"/>
@@ -55571,13 +56343,14 @@
       <c r="BP261"/>
       <c r="BQ261"/>
       <c r="BR261"/>
+      <c r="BS261"/>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B262" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C262"/>
       <c r="D262"/>
@@ -55647,13 +56420,14 @@
       <c r="BP262"/>
       <c r="BQ262"/>
       <c r="BR262"/>
+      <c r="BS262"/>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B263" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C263"/>
       <c r="D263"/>
@@ -55723,13 +56497,14 @@
       <c r="BP263"/>
       <c r="BQ263"/>
       <c r="BR263"/>
+      <c r="BS263"/>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B264" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C264"/>
       <c r="D264"/>
@@ -55799,13 +56574,14 @@
       <c r="BP264"/>
       <c r="BQ264"/>
       <c r="BR264"/>
+      <c r="BS264"/>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B265" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C265"/>
       <c r="D265"/>
@@ -55875,13 +56651,14 @@
       <c r="BP265"/>
       <c r="BQ265"/>
       <c r="BR265"/>
+      <c r="BS265"/>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B266" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C266"/>
       <c r="D266"/>
@@ -55951,13 +56728,14 @@
       <c r="BP266"/>
       <c r="BQ266"/>
       <c r="BR266"/>
+      <c r="BS266"/>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B267" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C267"/>
       <c r="D267"/>
@@ -56027,13 +56805,14 @@
       <c r="BP267"/>
       <c r="BQ267"/>
       <c r="BR267"/>
+      <c r="BS267"/>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B268" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C268"/>
       <c r="D268"/>
@@ -56103,13 +56882,14 @@
       <c r="BP268"/>
       <c r="BQ268"/>
       <c r="BR268"/>
+      <c r="BS268"/>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B269" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C269"/>
       <c r="D269"/>
@@ -56179,13 +56959,14 @@
       <c r="BP269"/>
       <c r="BQ269"/>
       <c r="BR269"/>
+      <c r="BS269"/>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B270" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C270"/>
       <c r="D270"/>
@@ -56255,13 +57036,14 @@
       <c r="BP270"/>
       <c r="BQ270"/>
       <c r="BR270"/>
+      <c r="BS270"/>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B271" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C271"/>
       <c r="D271"/>
@@ -56331,13 +57113,14 @@
       <c r="BP271"/>
       <c r="BQ271"/>
       <c r="BR271"/>
+      <c r="BS271"/>
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B272" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C272"/>
       <c r="D272"/>
@@ -56407,13 +57190,14 @@
       <c r="BP272"/>
       <c r="BQ272"/>
       <c r="BR272"/>
+      <c r="BS272"/>
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B273" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C273"/>
       <c r="D273"/>
@@ -56483,13 +57267,14 @@
       <c r="BP273"/>
       <c r="BQ273"/>
       <c r="BR273"/>
+      <c r="BS273"/>
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B274" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C274"/>
       <c r="D274"/>
@@ -56559,13 +57344,14 @@
       <c r="BP274"/>
       <c r="BQ274"/>
       <c r="BR274"/>
+      <c r="BS274"/>
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B275" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C275"/>
       <c r="D275"/>
@@ -56635,13 +57421,14 @@
       <c r="BP275"/>
       <c r="BQ275"/>
       <c r="BR275"/>
+      <c r="BS275"/>
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B276" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C276"/>
       <c r="D276"/>
@@ -56711,13 +57498,14 @@
       <c r="BP276"/>
       <c r="BQ276"/>
       <c r="BR276"/>
+      <c r="BS276"/>
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B277" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C277"/>
       <c r="D277"/>
@@ -56787,13 +57575,14 @@
       <c r="BP277"/>
       <c r="BQ277"/>
       <c r="BR277"/>
+      <c r="BS277"/>
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B278" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C278"/>
       <c r="D278"/>
@@ -56863,13 +57652,14 @@
       <c r="BP278"/>
       <c r="BQ278"/>
       <c r="BR278"/>
+      <c r="BS278"/>
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B279" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C279"/>
       <c r="D279"/>
@@ -56939,6 +57729,7 @@
       <c r="BP279"/>
       <c r="BQ279"/>
       <c r="BR279"/>
+      <c r="BS279"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
